--- a/Tablolar/Ağırlıklı Değerlendirme.xlsx
+++ b/Tablolar/Ağırlıklı Değerlendirme.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BA3FB-F988-7E47-A5AA-E4C4C9146118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Tablo 1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Tablo 1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ders Çıktıları /Değerlendirme</t>
   </si>
   <si>
-    <t>Ödev 1</t>
+    <t>Ödev1</t>
+  </si>
+  <si>
+    <t>Ödev2</t>
   </si>
   <si>
     <t>Quiz</t>
+  </si>
+  <si>
+    <t>Quiz4</t>
   </si>
   <si>
     <t>Vize</t>
@@ -66,14 +55,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,19 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="35" style="1" customWidth="1"/>
+    <col min="1" max="8" width="35" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,114 +454,145 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>0.4</v>
       </c>
-      <c r="F2" s="1">
-        <f>SUM(B2:E2)</f>
-        <v>1</v>
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.4</v>
       </c>
-      <c r="F3" s="1">
-        <f>SUM(B3:E3)</f>
-        <v>0.60000000000000009</v>
+      <c r="H3" s="1">
+        <f>SUM(B3:G3)</f>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.3</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f>SUM(B4:E4)</f>
+      <c r="G4" s="1">
         <v>0.4</v>
       </c>
+      <c r="H4" s="1">
+        <f>SUM(B4:G4)</f>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>0.4</v>
       </c>
-      <c r="F5" s="1">
-        <f>SUM(B5:E5)</f>
-        <v>0.7</v>
+      <c r="H5" s="1">
+        <f>SUM(B5:G5)</f>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="1">
-        <f>SUM(B6:E6)</f>
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUM(B6:G6)</f>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Tablolar/Ağırlıklı Değerlendirme.xlsx
+++ b/Tablolar/Ağırlıklı Değerlendirme.xlsx
@@ -495,16 +495,16 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>0.1</v>
       </c>
       <c r="F3" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0.4</v>
@@ -544,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0.05</v>
@@ -559,7 +559,7 @@
         <v>0.3</v>
       </c>
       <c r="G5" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(B5:G5)</f>
@@ -570,22 +570,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(B6:G6)</f>
